--- a/doc/user.xlsx
+++ b/doc/user.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Portal web 用户列表</t>
   </si>
@@ -70,6 +70,21 @@
   <si>
     <t>sdasdasdx</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>man.wang@jwis.cn</t>
+    </r>
+  </si>
+  <si>
+    <t>王曼</t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -105,6 +120,13 @@
       <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="15"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -336,22 +358,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -372,13 +394,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -404,6 +426,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1577,8 +1600,12 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
+      <c r="A7" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>11</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
@@ -1703,6 +1730,7 @@
     <hyperlink ref="A3" r:id="rId1" location="" tooltip="" display=""/>
     <hyperlink ref="A4" r:id="rId2" location="" tooltip="" display=""/>
     <hyperlink ref="A5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="A7" r:id="rId4" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/user.xlsx
+++ b/doc/user.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Portal web 用户列表</t>
   </si>
@@ -25,50 +25,16 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color indexed="15"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>afterloeliu@jwis.cn</t>
     </r>
   </si>
   <si>
-    <t>刘益达</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>lm6289511@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>刘御风</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>afterloe@foxmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>王嵫</t>
-  </si>
-  <si>
-    <t>sdasdasdx</t>
+    <t>刘闽</t>
   </si>
   <si>
     <r>
@@ -84,6 +50,36 @@
   </si>
   <si>
     <t>王曼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>jxu123456@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>老徐</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>per@plmchina.net</t>
+    </r>
+  </si>
+  <si>
+    <t>Per</t>
   </si>
 </sst>
 </file>
@@ -116,10 +112,9 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color indexed="15"/>
       <name val="Helvetica"/>
     </font>
     <font>
@@ -388,10 +383,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1521,7 +1516,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1566,7 +1561,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
+    <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="12">
         <v>5</v>
       </c>
@@ -1577,7 +1572,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
+    <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
@@ -1592,135 +1587,110 @@
       <c r="A6" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B6" s="14">
-        <v>2323</v>
+      <c r="B6" t="s" s="13">
+        <v>10</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>11</v>
-      </c>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1730,7 +1700,7 @@
     <hyperlink ref="A3" r:id="rId1" location="" tooltip="" display=""/>
     <hyperlink ref="A4" r:id="rId2" location="" tooltip="" display=""/>
     <hyperlink ref="A5" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="A7" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="A6" r:id="rId4" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
